--- a/B-card_rev2/b-card-microcom/BOM_IMPORT.xlsx
+++ b/B-card_rev2/b-card-microcom/BOM_IMPORT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Users\Matt\Documents\Personal\Thermal-Logo\B-card_rev2\b-card-microcom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF24F9CE-C231-40AD-AE2B-53073730B20A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{057F2A3C-93BB-4B4A-AE05-67095546AEE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="330" yWindow="210" windowWidth="26445" windowHeight="15195" xr2:uid="{97D4C2D2-687F-4E2F-AA69-39F870EFF722}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="95">
   <si>
     <t>Qty</t>
   </si>
@@ -762,7 +762,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -770,9 +770,9 @@
     <col min="1" max="1" width="6.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="50.28515625" customWidth="1"/>
-    <col min="6" max="6" width="98.5703125" customWidth="1"/>
-    <col min="7" max="7" width="52.140625" customWidth="1"/>
+    <col min="5" max="5" width="36.85546875" customWidth="1"/>
+    <col min="6" max="6" width="86.140625" customWidth="1"/>
+    <col min="7" max="7" width="46" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">

--- a/B-card_rev2/b-card-microcom/BOM_IMPORT.xlsx
+++ b/B-card_rev2/b-card-microcom/BOM_IMPORT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Users\Matt\Documents\Personal\Thermal-Logo\B-card_rev2\b-card-microcom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{057F2A3C-93BB-4B4A-AE05-67095546AEE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFA31C54-5B29-4A1A-92F5-6887B5254E4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="330" yWindow="210" windowWidth="26445" windowHeight="15195" xr2:uid="{97D4C2D2-687F-4E2F-AA69-39F870EFF722}"/>
   </bookViews>
@@ -370,11 +370,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -761,8 +763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8FFFF36-E505-4145-8EFA-4104E0394EB2}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1120,126 +1122,126 @@
         <v>91</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16">
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
         <v>1</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="G16" s="5" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17">
+    <row r="17" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
         <v>1</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="G17" s="5" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18">
+    <row r="18" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
         <v>1</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="G18" s="5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19">
+    <row r="19" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
         <v>1</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="G19" s="5" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20">
+    <row r="20" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
         <v>1</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="G20" s="5" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+    <row r="21" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
         <v>1</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="5" t="s">
         <v>59</v>
       </c>
       <c r="C21" s="3" t="s">

--- a/B-card_rev2/b-card-microcom/BOM_IMPORT.xlsx
+++ b/B-card_rev2/b-card-microcom/BOM_IMPORT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Users\Matt\Documents\Personal\Thermal-Logo\B-card_rev2\b-card-microcom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFA31C54-5B29-4A1A-92F5-6887B5254E4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{807E4BF9-A50C-444A-83D6-B78567B27765}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="330" yWindow="210" windowWidth="26445" windowHeight="15195" xr2:uid="{97D4C2D2-687F-4E2F-AA69-39F870EFF722}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="95">
   <si>
     <t>Qty</t>
   </si>
@@ -130,18 +130,12 @@
     <t>C11</t>
   </si>
   <si>
-    <t>11</t>
-  </si>
-  <si>
     <t>R-US_R2512</t>
   </si>
   <si>
     <t>R2512</t>
   </si>
   <si>
-    <t>R1, R2, R3</t>
-  </si>
-  <si>
     <t>1uF</t>
   </si>
   <si>
@@ -187,9 +181,6 @@
     <t>AZ1117IH-5.0</t>
   </si>
   <si>
-    <t>IC1, IC2, IC3</t>
-  </si>
-  <si>
     <t>B3AL-1000P</t>
   </si>
   <si>
@@ -283,9 +274,6 @@
     <t>AZ1117IH-5.0TRG1DICT-ND</t>
   </si>
   <si>
-    <t>A121128CT-ND</t>
-  </si>
-  <si>
     <t>AZ1117IH-3.3TRG1DICT-ND</t>
   </si>
   <si>
@@ -329,16 +317,34 @@
   </si>
   <si>
     <t>C1, C3, C5, C7, C8, C10, C12, C13</t>
+  </si>
+  <si>
+    <t>R1, R2, R3, R13</t>
+  </si>
+  <si>
+    <t>IC1, IC2, IC3, IC8</t>
+  </si>
+  <si>
+    <t>CPA25Q5.6CT-ND</t>
+  </si>
+  <si>
+    <t>GREEN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -370,13 +376,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -763,8 +774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8FFFF36-E505-4145-8EFA-4104E0394EB2}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -805,7 +816,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>13</v>
@@ -814,13 +825,13 @@
         <v>14</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -843,7 +854,7 @@
         <v>20</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -851,68 +862,68 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6">
+        <v>5.6</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="E5" s="1" t="s">
-        <v>31</v>
+        <v>91</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="G6" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -920,22 +931,22 @@
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -952,13 +963,13 @@
         <v>14</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -966,7 +977,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>17</v>
@@ -975,13 +986,13 @@
         <v>18</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -989,22 +1000,22 @@
         <v>2</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="G10" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -1012,22 +1023,22 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>70</v>
-      </c>
       <c r="G11" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -1035,22 +1046,22 @@
         <v>2</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -1058,7 +1069,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>7</v>
+        <v>94</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>8</v>
@@ -1073,7 +1084,7 @@
         <v>11</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -1119,7 +1130,7 @@
         <v>15</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1127,7 +1138,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>17</v>
@@ -1136,13 +1147,13 @@
         <v>18</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>20</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1150,22 +1161,22 @@
         <v>1</v>
       </c>
       <c r="B17" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" s="5" t="s">
+      <c r="F17" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E17" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>40</v>
-      </c>
       <c r="G17" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1173,22 +1184,22 @@
         <v>1</v>
       </c>
       <c r="B18" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="E18" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="F18" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E18" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>45</v>
-      </c>
       <c r="G18" s="5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1196,22 +1207,22 @@
         <v>1</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1219,51 +1230,52 @@
         <v>1</v>
       </c>
       <c r="B20" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F20" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>54</v>
-      </c>
       <c r="G20" s="5" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
+      <c r="A21" s="7">
         <v>1</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>59</v>
+      <c r="B21" s="8" t="s">
+        <v>56</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>7</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
